--- a/workspace/BuzzApi.com/gfgcontribute.xlsx
+++ b/workspace/BuzzApi.com/gfgcontribute.xlsx
@@ -89,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>

--- a/workspace/BuzzApi.com/gfgcontribute.xlsx
+++ b/workspace/BuzzApi.com/gfgcontribute.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>ID</t>
+    <t>status</t>
   </si>
   <si>
-    <t>NAME</t>
+    <t>error</t>
   </si>
   <si>
-    <t>LASTNAME</t>
+    <t>request_reference_id</t>
   </si>
   <si>
     <t>Pankaj</t>
